--- a/biology/Botanique/Jean_Nadeaud/Jean_Nadeaud.xlsx
+++ b/biology/Botanique/Jean_Nadeaud/Jean_Nadeaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Nadeau est un botaniste français né le 23 juillet 1834 à Beurlay[1] et décédé le 20 novembre 1898 à Papeete (Tahiti).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Nadeau est un botaniste français né le 23 juillet 1834 à Beurlay et décédé le 20 novembre 1898 à Papeete (Tahiti).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de médecine, il s'embarque comme chirurgien de marine. Son voyage s'arrête le 23 février 1856 à Tahiti où il séjourne trois ans et demi jusqu'au 23 août 1859. Durant tout son séjour à Tahiti, il crée une importante collection de plantes actuellement déposée en grande partie à l’herbier du Museum national d’Histoire naturelle de Paris.
 Son premier intérêt s'est porté sur les plantes médicinales des tahitiens. Il en tire le sujet de sa thèse en médecine - « Plantes usuelles des Tahitiens » - qu'il soutient à Montpellier en 1864. Il apprend le tahitien et se lie avec Rereao Taufa, avec qui il a un fils.
@@ -544,13 +558,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Son œuvre porte exclusivement sur Tahiti :
 Plantes usuelles des tahitiens - Paris : J. Martel, 1864 (extrait de sa thèse de médecine soutenue le 11 juillet 1864 à Montpellier).
 Énumération des plantes indigènes de l'île de Tahiti, recueillies et classées par le Dr J. Nadeaud - Paris : J. Savy, 1873.
 Mousses et hépatiques de l'île de Tahiti recueillies par le Dr Nadeaud - Manuscrit du Muséum National d'Histoire Naturelle.
-Journal de botanique (souscription) - 1896 à 1898[3]</t>
+Journal de botanique (souscription) - 1896 à 1898</t>
         </is>
       </c>
     </row>
@@ -578,7 +594,9 @@
           <t>Œuvres botaniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les importantes collectes qu'il a réalisées, il a déterminé 56 espèces ou variétés.
 Parmi elles, trois sont des hépatiques.
@@ -611,7 +629,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Quelles espèces de plantes, parmi celles qu'il a collectées et en particulier des bryophytes, lui ont été dédiées :
 Arthrocormus nadeaudii Besch. - Calyperaceae : voir Exostratum blumii (Nees ex Hampe) L.T.Ellis (synonyme : Exodictyon nadeaudii (Besch.) Cardot)
